--- a/reporter/src/funTest/assets/file-counter-expected-scan-report.xlsx
+++ b/reporter/src/funTest/assets/file-counter-expected-scan-report.xlsx
@@ -67,10 +67,10 @@
     <t>Detected Licenses</t>
   </si>
   <si>
-    <t>Analyzer Errors</t>
-  </si>
-  <si>
-    <t>Scan Errors</t>
+    <t>Analyzer Issues</t>
+  </si>
+  <si>
+    <t>Scan Issues</t>
   </si>
   <si>
     <r>
@@ -444,7 +444,7 @@
     <col min="2" max="2" width="41.45703125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="25.8828125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="17.4296875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="14.9765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="15.00390625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="254.4453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -650,7 +650,7 @@
     <col min="2" max="2" width="11.81640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="25.8828125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="17.4296875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="14.9765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="15.00390625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="254.4453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/reporter/src/funTest/assets/file-counter-expected-scan-report.xlsx
+++ b/reporter/src/funTest/assets/file-counter-expected-scan-report.xlsx
@@ -98,7 +98,7 @@
         <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">Gradle:com.here.ort.gradle.example:lib:1.0.0
-  n/a: FileCounter - DownloadException: No source artifact URL provided for 'Gradle:com.here.ort.gradle.example:lib:1.0.0'.
+  Unknown time: FileCounter - DownloadException: No source artifact URL provided for 'Gradle:com.here.ort.gradle.example:lib:1.0.0'.
 Caused by: DownloadException: No VCS URL provided for 'Gradle:com.here.ort.gradle.example:lib:1.0.0'. Please make sure the release POM file includes the SCM connection, see: https://docs.gradle.org/current/userguide/publishing_maven.html#example_customizing_the_pom_file
 </t>
     </r>
@@ -222,7 +222,7 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>n/a: FileCounter - DownloadException: No source artifact URL provided for 'Gradle:com.here.ort.gradle.example:lib:1.0.0'.
+      <t>Unknown time: FileCounter - DownloadException: No source artifact URL provided for 'Gradle:com.here.ort.gradle.example:lib:1.0.0'.
 Caused by: DownloadException: No VCS URL provided for 'Gradle:com.here.ort.gradle.example:lib:1.0.0'. Please make sure the release POM file includes the SCM connection, see: https://docs.gradle.org/current/userguide/publishing_maven.html#example_customizing_the_pom_file</t>
     </r>
   </si>

--- a/reporter/src/funTest/assets/file-counter-expected-scan-report.xlsx
+++ b/reporter/src/funTest/assets/file-counter-expected-scan-report.xlsx
@@ -98,7 +98,7 @@
         <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">Gradle:com.here.ort.gradle.example:lib:1.0.0
-  Unknown time: FileCounter - DownloadException: No source artifact URL provided for 'Gradle:com.here.ort.gradle.example:lib:1.0.0'.
+  Unknown time [ERROR]: FileCounter - DownloadException: No source artifact URL provided for 'Gradle:com.here.ort.gradle.example:lib:1.0.0'.
 Caused by: DownloadException: No VCS URL provided for 'Gradle:com.here.ort.gradle.example:lib:1.0.0'. Please make sure the release POM file includes the SCM connection, see: https://docs.gradle.org/current/userguide/publishing_maven.html#example_customizing_the_pom_file
 </t>
     </r>
@@ -222,7 +222,7 @@
         <sz val="11.0"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>Unknown time: FileCounter - DownloadException: No source artifact URL provided for 'Gradle:com.here.ort.gradle.example:lib:1.0.0'.
+      <t>Unknown time [ERROR]: FileCounter - DownloadException: No source artifact URL provided for 'Gradle:com.here.ort.gradle.example:lib:1.0.0'.
 Caused by: DownloadException: No VCS URL provided for 'Gradle:com.here.ort.gradle.example:lib:1.0.0'. Please make sure the release POM file includes the SCM connection, see: https://docs.gradle.org/current/userguide/publishing_maven.html#example_customizing_the_pom_file</t>
     </r>
   </si>

--- a/reporter/src/funTest/assets/file-counter-expected-scan-report.xlsx
+++ b/reporter/src/funTest/assets/file-counter-expected-scan-report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\oss-review-toolkit\reporter\src\funTest\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sse1be\Development\GitHub\oss-review-toolkit\ort\reporter\src\funTest\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E48ABD-96E1-4177-8D38-DE1E74EEF156}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5F3D68-2701-4389-8F27-EFE65A4E6A24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7215" yWindow="2955" windowWidth="26190" windowHeight="15015" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="4680" windowWidth="28800" windowHeight="15555" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -228,15 +228,6 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>ResolvedLicense(license=EPL-1.0, sources=[DECLARED], originalDeclaredLicenses=[Eclipse Public License 1.0], locations=[])</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
       <t xml:space="preserve">compile
 </t>
     </r>
@@ -247,24 +238,6 @@
       </rPr>
       <t xml:space="preserve">testCompile
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>ResolvedLicense(license=Apache-2.0, sources=[DECLARED], originalDeclaredLicenses=[Apache License, Version 2.0], locations=[])</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>ResolvedLicense(license=BSD-3-Clause, sources=[DECLARED], originalDeclaredLicenses=[New BSD License], locations=[])</t>
     </r>
   </si>
   <si>
@@ -279,12 +252,21 @@
 Suppressed: DownloadException: No VCS URL provided for 'Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0'. Please make sure the published POM file includes the SCM connection, see: https://docs.gradle.org/current/userguide/publishing_maven.html#sec:modifying_the_generated_pom
 Suppressed: DownloadException: No source artifact URL provided for 'Gradle:org.ossreviewtoolkit.gradle.example:lib:1.0.0'.</t>
   </si>
+  <si>
+    <t>ResolvedLicense(license=EPL-1.0, originalDeclaredLicenses=[Eclipse Public License 1.0], originalExpressions={DECLARED=[EPL-1.0]}, locations=[])</t>
+  </si>
+  <si>
+    <t>ResolvedLicense(license=Apache-2.0, originalDeclaredLicenses=[Apache License, Version 2.0], originalExpressions={DECLARED=[Apache-2.0]}, locations=[])</t>
+  </si>
+  <si>
+    <t>ResolvedLicense(license=BSD-3-Clause, originalDeclaredLicenses=[New BSD License], originalExpressions={DECLARED=[BSD-3-Clause]}, locations=[])</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -347,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -371,9 +353,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -389,7 +374,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -694,7 +679,7 @@
       <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
@@ -703,7 +688,7 @@
     <col min="6" max="6" width="229.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -715,7 +700,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -727,12 +712,12 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -744,7 +729,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -756,7 +741,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -768,7 +753,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -780,7 +765,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="30">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -800,7 +785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1">
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
@@ -817,10 +802,10 @@
         <v>8</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="45" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -840,7 +825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="75" customHeight="1">
+    <row r="13" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -860,7 +845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="75" customHeight="1">
+    <row r="14" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -880,7 +865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45" customHeight="1">
+    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
@@ -919,13 +904,13 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -935,7 +920,7 @@
     <col min="6" max="6" width="229.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -947,7 +932,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -959,12 +944,12 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -976,7 +961,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -988,7 +973,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1000,7 +985,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1012,7 +997,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="30">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1032,7 +1017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1047,18 +1032,18 @@
         <v>8</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>32</v>
+      <c r="C12" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
@@ -1070,15 +1055,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1">
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>8</v>
@@ -1090,15 +1075,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1">
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
@@ -1110,15 +1095,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>35</v>
+      <c r="C15" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
